--- a/assets/Mutations.xlsx
+++ b/assets/Mutations.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902E9343-1614-4D9F-9452-925812DB3CFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95595F-4237-4FF4-915B-1918A4538A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="15600" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="15600" activeTab="3" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
   </bookViews>
   <sheets>
-    <sheet name="1st" sheetId="1" r:id="rId1"/>
-    <sheet name="2nd" sheetId="2" r:id="rId2"/>
-    <sheet name="3rd" sheetId="3" r:id="rId3"/>
+    <sheet name="1st.v1" sheetId="1" r:id="rId1"/>
+    <sheet name="3rd.v1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="1st.v2" sheetId="6" r:id="rId4"/>
+    <sheet name="2nd.v2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="126">
   <si>
     <t>Brn Mushroom</t>
   </si>
@@ -399,13 +401,19 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ferranum</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +421,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -436,11 +457,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,11 +493,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -483,6 +546,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6D6D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -793,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBEF0E-6F5B-45B0-91C5-7B78B351A7D2}">
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
@@ -3495,12 +3563,12 @@
     <mergeCell ref="E45:E46"/>
   </mergeCells>
   <conditionalFormatting sqref="F85:F199">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F198">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3510,1333 +3578,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784E60E4-49F1-4BDD-A202-A87547A939F0}">
-  <dimension ref="A1:E168"/>
-  <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55">
-        <f>COUNTIF(B3:B52, "Agave")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56">
-        <f>COUNTIF(B3:B52, "Allium")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <f>COUNTIF(B3:B52, "Arrowroot")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <f>COUNTIF(B3:B52, "Artichoke")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59">
-        <f>COUNTIF(B3:B52, "Asparagus")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <f>COUNTIF(B3:B52, "Aurigold")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61">
-        <f>COUNTIF(B3:B52, "Bamboo Shoot")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62">
-        <f>COUNTIF(B3:B52, "Barley")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63">
-        <f>COUNTIF(B3:B52, "Bean")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64">
-        <f>COUNTIF(B3:B52, "Beet")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65">
-        <f>COUNTIF(B3:B52, "Beet Root")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66">
-        <f>COUNTIF(B3:B52, "Bellpepper")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67">
-        <f>COUNTIF(B3:B52, "Blackberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68">
-        <f>COUNTIF(B3:B52, "Blueberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69">
-        <f>COUNTIF(B3:B52, "Broccoli")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <f>COUNTIF(B3:B52, "Brn Mushroom")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71">
-        <f>COUNTIF(B3:B52, "Brussel Sprout")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72">
-        <f>COUNTIF(B3:B52, "Cabbage")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <f>COUNTIF(B3:B52, "Cactus")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74">
-        <f>COUNTIF(B3:B52, "Cactus Fruit")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75">
-        <f>COUNTIF(B3:B52, "Candleberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76">
-        <f>COUNTIF(B3:B52, "Cantalope")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77">
-        <f>COUNTIF(B3:B52, "Carrot")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78">
-        <f>COUNTIF(B3:B52, "Cassava")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79">
-        <f>COUNTIF(B3:B52, "Cauliflower")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80">
-        <f>COUNTIF(B3:B52, "Celery")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <f>COUNTIF(B3:B52, "Chili Pepper")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82">
-        <f>COUNTIF(B3:B52, "Coffee")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83">
-        <f>COUNTIF(B3:B52, "Corn")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84">
-        <f>COUNTIF(B3:B52, "Cotton")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85">
-        <f>COUNTIF(B3:B52, "Cranberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <f>COUNTIF(B3:B52, "Cucumber")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <f>COUNTIF(B3:B52, "Cuprosia")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88">
-        <f>COUNTIF(B3:B52, "Curry Leaf")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89">
-        <f>COUNTIF(B3:B52, "Daisy")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <f>COUNTIF(B3:B52, "Dandelion")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91">
-        <f>COUNTIF(B3:B52, "Diamahlia")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92">
-        <f>COUNTIF(B3:B52, "Egg Plant")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93">
-        <f>COUNTIF(B3:B52, "Elderberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94">
-        <f>COUNTIF(B3:B52, "Emeryllis")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95">
-        <f>COUNTIF(B3:B52, "Ferranium")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96">
-        <f>COUNTIF(B3:B52, "Flax")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97">
-        <f>COUNTIF(B3:B52, "Garlic")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98">
-        <f>COUNTIF(B3:B52, "Ginger")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99">
-        <f>COUNTIF(B3:B52, "Grape")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100">
-        <f>COUNTIF(B3:B52, "Green Grape")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101">
-        <f>COUNTIF(B3:B52, "Hemp")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102">
-        <f>COUNTIF(B3:B52, "Hops")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103">
-        <f>COUNTIF(B3:B52, "Huckleberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104">
-        <f>COUNTIF(B3:B52, "Jaslumine")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105">
-        <f>COUNTIF(B3:B52, "Jicama")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106">
-        <f>COUNTIF(B3:B52, "Juniperberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107">
-        <f>COUNTIF(B3:B52, "Kale")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108">
-        <f>COUNTIF(B3:B52, "Kenaf")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109">
-        <f>COUNTIF(B3:B52, "Kiwi")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C110">
-        <f>COUNTIF(B3:B52, "Kohlrabi")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111">
-        <f>COUNTIF(B3:B52, "Lapender")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112">
-        <f>COUNTIF(B3:B52, "Leek")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113">
-        <f>COUNTIF(B3:B52, "Lentil")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>72</v>
-      </c>
-      <c r="C114">
-        <f>COUNTIF(B3:B52, "Lettuce")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115">
-        <f>COUNTIF(B3:B52, "Melon")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116">
-        <f>COUNTIF(B3:B52, "Millet")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>99</v>
-      </c>
-      <c r="C117">
-        <f>COUNTIF(B3:B52, "Mulberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118">
-        <f>COUNTIF(B3:B52, "Mustard")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119">
-        <f>COUNTIF(B3:B52, "Nether Wart")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120">
-        <f>COUNTIF(B3:B52, "Niccissuss")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121">
-        <f>COUNTIF(B3:B52, "Nitorwart")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122">
-        <f>COUNTIF(B3:B52, "Oats")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123">
-        <f>COUNTIF(B3:B52, "Okra")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>101</v>
-      </c>
-      <c r="C124">
-        <f>COUNTIF(B3:B52, "Onion")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125">
-        <f>COUNTIF(B3:B52, "Orange Tulip")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126">
-        <f>COUNTIF(B3:B52, "Orchid")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127">
-        <f>COUNTIF(B3:B52, "Parsnip")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128">
-        <f>COUNTIF(B3:B52, "Peanut")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>105</v>
-      </c>
-      <c r="C129">
-        <f>COUNTIF(B3:B52, "Peas")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130">
-        <f>COUNTIF(B3:B52, "Petinia")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>106</v>
-      </c>
-      <c r="C131">
-        <f>COUNTIF(B3:B52, "Pineapple")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132">
-        <f>COUNTIF(B3:B52, "Pink Tulip")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133">
-        <f>COUNTIF(B3:B52, "Plombean")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134">
-        <f>COUNTIF(B3:B52, "Poppy")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135">
-        <f>COUNTIF(B3:B52, "Potato")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>28</v>
-      </c>
-      <c r="C136">
-        <f>COUNTIF(B3:B52, "Pumpkin")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <f>COUNTIF(B3:B52, "Quartzanthemum")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>50</v>
-      </c>
-      <c r="C138">
-        <f>COUNTIF(B3:B52, "Quinoa")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>107</v>
-      </c>
-      <c r="C139">
-        <f>COUNTIF(B3:B52, "Radish")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>51</v>
-      </c>
-      <c r="C140">
-        <f>COUNTIF(B3:B52, "Raspberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <f>COUNTIF(B3:B52, "Red Mushroom")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142">
-        <f>COUNTIF(B3:B52, "Red Tulip")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143">
-        <f>COUNTIF(B3:B52, "Redstodendron")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>108</v>
-      </c>
-      <c r="C144">
-        <f>COUNTIF(B3:B52, "Rhubarb")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>71</v>
-      </c>
-      <c r="C145">
-        <f>COUNTIF(B3:B52, "Rice")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>109</v>
-      </c>
-      <c r="C146">
-        <f>COUNTIF(B3:B52, "Rutabaga")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147">
-        <f>COUNTIF(B3:B52, "Rye")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148">
-        <f>COUNTIF(B3:B52, "Scallion")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>81</v>
-      </c>
-      <c r="C149">
-        <f>COUNTIF(B3:B52, "Seaweed")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>111</v>
-      </c>
-      <c r="C150">
-        <f>COUNTIF(B3:B52, "Sesame Seeds")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>68</v>
-      </c>
-      <c r="C151">
-        <f>COUNTIF(B3:B52, "Sisal")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>112</v>
-      </c>
-      <c r="C152">
-        <f>COUNTIF(B3:B52, "Soybean")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C153">
-        <f>COUNTIF(B3:B52, "Spice Leaf")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>104</v>
-      </c>
-      <c r="C154">
-        <f>COUNTIF(B3:B52, "Spinach")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155">
-        <f>COUNTIF(B3:B52, "Strawberry")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>42</v>
-      </c>
-      <c r="C156">
-        <f>COUNTIF(B3:B52, "Sugar Cane")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>113</v>
-      </c>
-      <c r="C157">
-        <f>COUNTIF(B3:B52, "Sweet Potato")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>115</v>
-      </c>
-      <c r="C158">
-        <f>COUNTIF(B3:B52, "Taro")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>114</v>
-      </c>
-      <c r="C159">
-        <f>COUNTIF(B3:B52, "Tea")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>116</v>
-      </c>
-      <c r="C160">
-        <f>COUNTIF(B3:B52, "Tomatillo")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>117</v>
-      </c>
-      <c r="C161">
-        <f>COUNTIF(B3:B52, "Tomato")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>69</v>
-      </c>
-      <c r="C162">
-        <f>COUNTIF(B3:B52, "Turnip")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>118</v>
-      </c>
-      <c r="C163">
-        <f>COUNTIF(B3:B52, "Water Chestnut")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>32</v>
-      </c>
-      <c r="C164">
-        <f>COUNTIF(B3:B52, "Wheat")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>119</v>
-      </c>
-      <c r="C165">
-        <f>COUNTIF(B3:B52, "White Mushroom")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166">
-        <f>COUNTIF(B3:B52, "White Tulip")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167">
-        <f>COUNTIF(B3:B52, "Winter Squash")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168">
-        <f>COUNTIF(B3:B52, "Zucchini")</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2681B9E-BF69-4852-8027-4A41166FA23A}">
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="C188" sqref="C188:C190"/>
     </sheetView>
   </sheetViews>
@@ -6259,4 +5004,3349 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C1EC6-2968-4A8C-B2A2-1C468BA2D0B2}">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95096370-8A33-44C4-86A3-21EEF1D3B91C}">
+  <dimension ref="A1:G184"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <f>COUNTIF(B3:B67, "Agave")</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>SUM(C70:E70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <f>COUNTIF(B3:B67, "Allium")</f>
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F134" si="0">SUM(C71:E71)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <f>COUNTIF(B3:B67, "Arrowroot")</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <f>COUNTIF(B3:B67, "Artichoke")</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <f>COUNTIF(B3:B67, "Asparagus")</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <f>COUNTIF(B3:B67, "Aurigold")</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76">
+        <f>COUNTIF(B3:B67, "Bamboo Shoot")</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77">
+        <f>COUNTIF(B3:B67, "Barley")</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <f>COUNTIF(B3:B67, "Bean")</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <f>COUNTIF(B3:B67, "Beet")</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <f>COUNTIF(B3:B67, "Beet Root")</f>
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <f>COUNTIF(B3:B67, "Bellpepper")</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <f>COUNTIF(B3:B67, "Blackberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83">
+        <f>COUNTIF(B3:B67, "Blueberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <f>COUNTIF(B3:B67, "Broccoli")</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>COUNTIF(B3:B67, "Brn Mushroom")</f>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86">
+        <f>COUNTIF(B3:B67, "Brussel Sprout")</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87">
+        <f>COUNTIF(B3:B67, "Cabbage")</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <f>COUNTIF(B3:B67, "Cactus")</f>
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <f>COUNTIF(B3:B67, "Cactus Fruit")</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90">
+        <f>COUNTIF(B3:B67, "Candleberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <f>COUNTIF(B3:B67, "Cantalope")</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <f>COUNTIF(B3:B67, "Carrot")</f>
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93">
+        <f>COUNTIF(B3:B67, "Cassava")</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94">
+        <f>COUNTIF(B3:B67, "Cauliflower")</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95">
+        <f>COUNTIF(B3:B67, "Celery")</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96">
+        <f>COUNTIF(B3:B67, "Chili Pepper")</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97">
+        <f>COUNTIF(B3:B67, "Coffee")</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98">
+        <f>COUNTIF(B3:B67, "Corn")</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99">
+        <f>COUNTIF(B3:B67, "Cotton")</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100">
+        <f>COUNTIF(B3:B67, "Cranberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101">
+        <f>COUNTIF(B3:B67, "Cucumber")</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <f>COUNTIF(B3:B67, "Cuprosia")</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103">
+        <f>COUNTIF(B3:B67, "Curry Leaf")</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <f>COUNTIF(B3:B67, "Daisy")</f>
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <f>COUNTIF(B3:B67, "Dandelion")</f>
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <f>COUNTIF(B3:B67, "Diamahlia")</f>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107">
+        <f>COUNTIF(B3:B67, "Egg Plant")</f>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108">
+        <f>COUNTIF(B3:B67, "Elderberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <f>COUNTIF(B3:B67, "Emeryllis")</f>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <f>COUNTIF(B3:B67, "Ferranium")</f>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111">
+        <f>COUNTIF(B3:B67, "Flax")</f>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112">
+        <f>COUNTIF(B3:B67, "Garlic")</f>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113">
+        <f>COUNTIF(B3:B67, "Ginger")</f>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114">
+        <f>COUNTIF(B3:B67, "Grape")</f>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115">
+        <f>COUNTIF(B3:B67, "Green Grape")</f>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116">
+        <f>COUNTIF(B3:B67, "Hemp")</f>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <f>COUNTIF(B3:B67, "Hops")</f>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118">
+        <f>COUNTIF(B3:B67, "Huckleberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <f>COUNTIF(B3:B67, "Jaslumine")</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120">
+        <f>COUNTIF(B3:B67, "Jicama")</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121">
+        <f>COUNTIF(B3:B67, "Juniperberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122">
+        <f>COUNTIF(B3:B67, "Kale")</f>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123">
+        <f>COUNTIF(B3:B67, "Kenaf")</f>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <f>COUNTIF(B3:B67, "Kiwi")</f>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125">
+        <f>COUNTIF(B3:B67, "Kohlrabi")</f>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <f>COUNTIF(B3:B67, "Lapender")</f>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127">
+        <f>COUNTIF(B3:B67, "Leek")</f>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128">
+        <f>COUNTIF(B3:B67, "Lentil")</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129">
+        <f>COUNTIF(B3:B67, "Lettuce")</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130">
+        <f>COUNTIF(B3:B67, "Melon")</f>
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
+        <f>COUNTIF(B3:B67, "Millet")</f>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132">
+        <f>COUNTIF(B3:B67, "Mulberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133">
+        <f>COUNTIF(B3:B67, "Mustard")</f>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <f>COUNTIF(B3:B67, "Nether Wart")</f>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <f>COUNTIF(B3:B67, "Niccissuss")</f>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ref="F135:F183" si="1">SUM(C135:E135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136">
+        <f>COUNTIF(B3:B67, "Nitorwart")</f>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137">
+        <f>COUNTIF(B3:B67, "Oats")</f>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138">
+        <f>COUNTIF(B3:B67, "Okra")</f>
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139">
+        <f>COUNTIF(B3:B67, "Onion")</f>
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <f>COUNTIF(B3:B67, "Orange Tulip")</f>
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <f>COUNTIF(B3:B67, "Orchid")</f>
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142">
+        <f>COUNTIF(B3:B67, "Parsnip")</f>
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143">
+        <f>COUNTIF(B3:B67, "Peanut")</f>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144">
+        <f>COUNTIF(B3:B67, "Peas")</f>
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <f>COUNTIF(B3:B67, "Petinia")</f>
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146">
+        <f>COUNTIF(B3:B67, "Pineapple")</f>
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <f>COUNTIF(B3:B67, "Pink Tulip")</f>
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <f>COUNTIF(B3:B67, "Plombean")</f>
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <f>COUNTIF(B3:B67, "Poppy")</f>
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <f>COUNTIF(B3:B67, "Potato")</f>
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151">
+        <f>COUNTIF(B3:B67, "Pumpkin")</f>
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <f>COUNTIF(B3:B67, "Quartzanthemum")</f>
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <f>COUNTIF(B3:B67, "Quinoa")</f>
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154">
+        <f>COUNTIF(B3:B67, "Radish")</f>
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155">
+        <f>COUNTIF(B3:B67, "Raspberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <f>COUNTIF(B3:B67, "Red Mushroom")</f>
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <f>COUNTIF(B3:B67, "Red Tulip")</f>
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <f>COUNTIF(B3:B67, "Redstodendron")</f>
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159">
+        <f>COUNTIF(B3:B67, "Rhubarb")</f>
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160">
+        <f>COUNTIF(B3:B67, "Rice")</f>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>109</v>
+      </c>
+      <c r="C161">
+        <f>COUNTIF(B3:B67, "Rutabaga")</f>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>110</v>
+      </c>
+      <c r="C162">
+        <f>COUNTIF(B3:B67, "Rye")</f>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163">
+        <f>COUNTIF(B3:B67, "Scallion")</f>
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164">
+        <f>COUNTIF(B3:B67, "Seaweed")</f>
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>111</v>
+      </c>
+      <c r="C165">
+        <f>COUNTIF(B3:B67, "Sesame Seeds")</f>
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166">
+        <f>COUNTIF(B3:B67, "Sisal")</f>
+        <v>0</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>112</v>
+      </c>
+      <c r="C167">
+        <f>COUNTIF(B3:B67, "Soybean")</f>
+        <v>0</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168">
+        <f>COUNTIF(B3:B67, "Spice Leaf")</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169">
+        <f>COUNTIF(B3:B67, "Spinach")</f>
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170">
+        <f>COUNTIF(B3:B67, "Strawberry")</f>
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171">
+        <f>COUNTIF(B3:B67, "Sugar Cane")</f>
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172">
+        <f>COUNTIF(B3:B67, "Sweet Potato")</f>
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>115</v>
+      </c>
+      <c r="C173">
+        <f>COUNTIF(B3:B67, "Taro")</f>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>114</v>
+      </c>
+      <c r="C174">
+        <f>COUNTIF(B3:B67, "Tea")</f>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175">
+        <f>COUNTIF(B3:B67, "Tomatillo")</f>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>117</v>
+      </c>
+      <c r="C176">
+        <f>COUNTIF(B3:B67, "Tomato")</f>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177">
+        <f>COUNTIF(B3:B67, "Turnip")</f>
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>118</v>
+      </c>
+      <c r="C178">
+        <f>COUNTIF(B3:B67, "Water Chestnut")</f>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179">
+        <f>COUNTIF(B3:B67, "Wheat")</f>
+        <v>4</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180">
+        <f>COUNTIF(B3:B67, "White Mushroom")</f>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181">
+        <f>COUNTIF(B3:B67, "White Tulip")</f>
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>120</v>
+      </c>
+      <c r="C182">
+        <f>COUNTIF(B3:B67, "Winter Squash")</f>
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183">
+        <f>COUNTIF(B3:B67, "Zucchini")</f>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <f>COUNTIF(F70:F183,0)</f>
+        <v>95</v>
+      </c>
+      <c r="G184">
+        <f>SUM(G70:G183)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F70:F184">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F183">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784E60E4-49F1-4BDD-A202-A87547A939F0}">
+  <dimension ref="A1:E168"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <f>COUNTIF(B3:B52, "Agave")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <f>COUNTIF(B3:B52, "Allium")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <f>COUNTIF(B3:B52, "Arrowroot")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <f>COUNTIF(B3:B52, "Artichoke")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <f>COUNTIF(B3:B52, "Asparagus")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <f>COUNTIF(B3:B52, "Aurigold")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <f>COUNTIF(B3:B52, "Bamboo Shoot")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62">
+        <f>COUNTIF(B3:B52, "Barley")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <f>COUNTIF(B3:B52, "Bean")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <f>COUNTIF(B3:B52, "Beet")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <f>COUNTIF(B3:B52, "Beet Root")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <f>COUNTIF(B3:B52, "Bellpepper")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67">
+        <f>COUNTIF(B3:B52, "Blackberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <f>COUNTIF(B3:B52, "Blueberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69">
+        <f>COUNTIF(B3:B52, "Broccoli")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>COUNTIF(B3:B52, "Brn Mushroom")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <f>COUNTIF(B3:B52, "Brussel Sprout")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <f>COUNTIF(B3:B52, "Cabbage")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <f>COUNTIF(B3:B52, "Cactus")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74">
+        <f>COUNTIF(B3:B52, "Cactus Fruit")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <f>COUNTIF(B3:B52, "Candleberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76">
+        <f>COUNTIF(B3:B52, "Cantalope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <f>COUNTIF(B3:B52, "Carrot")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <f>COUNTIF(B3:B52, "Cassava")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <f>COUNTIF(B3:B52, "Cauliflower")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80">
+        <f>COUNTIF(B3:B52, "Celery")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <f>COUNTIF(B3:B52, "Chili Pepper")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82">
+        <f>COUNTIF(B3:B52, "Coffee")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83">
+        <f>COUNTIF(B3:B52, "Corn")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84">
+        <f>COUNTIF(B3:B52, "Cotton")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85">
+        <f>COUNTIF(B3:B52, "Cranberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <f>COUNTIF(B3:B52, "Cucumber")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <f>COUNTIF(B3:B52, "Cuprosia")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <f>COUNTIF(B3:B52, "Curry Leaf")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <f>COUNTIF(B3:B52, "Daisy")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <f>COUNTIF(B3:B52, "Dandelion")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <f>COUNTIF(B3:B52, "Diamahlia")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <f>COUNTIF(B3:B52, "Egg Plant")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93">
+        <f>COUNTIF(B3:B52, "Elderberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <f>COUNTIF(B3:B52, "Emeryllis")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <f>COUNTIF(B3:B52, "Ferranium")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96">
+        <f>COUNTIF(B3:B52, "Flax")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97">
+        <f>COUNTIF(B3:B52, "Garlic")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98">
+        <f>COUNTIF(B3:B52, "Ginger")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99">
+        <f>COUNTIF(B3:B52, "Grape")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100">
+        <f>COUNTIF(B3:B52, "Green Grape")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <f>COUNTIF(B3:B52, "Hemp")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102">
+        <f>COUNTIF(B3:B52, "Hops")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103">
+        <f>COUNTIF(B3:B52, "Huckleberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <f>COUNTIF(B3:B52, "Jaslumine")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105">
+        <f>COUNTIF(B3:B52, "Jicama")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106">
+        <f>COUNTIF(B3:B52, "Juniperberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107">
+        <f>COUNTIF(B3:B52, "Kale")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108">
+        <f>COUNTIF(B3:B52, "Kenaf")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109">
+        <f>COUNTIF(B3:B52, "Kiwi")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <f>COUNTIF(B3:B52, "Kohlrabi")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <f>COUNTIF(B3:B52, "Lapender")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <f>COUNTIF(B3:B52, "Leek")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113">
+        <f>COUNTIF(B3:B52, "Lentil")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114">
+        <f>COUNTIF(B3:B52, "Lettuce")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <f>COUNTIF(B3:B52, "Melon")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116">
+        <f>COUNTIF(B3:B52, "Millet")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117">
+        <f>COUNTIF(B3:B52, "Mulberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118">
+        <f>COUNTIF(B3:B52, "Mustard")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <f>COUNTIF(B3:B52, "Nether Wart")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <f>COUNTIF(B3:B52, "Niccissuss")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <f>COUNTIF(B3:B52, "Nitorwart")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122">
+        <f>COUNTIF(B3:B52, "Oats")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123">
+        <f>COUNTIF(B3:B52, "Okra")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124">
+        <f>COUNTIF(B3:B52, "Onion")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <f>COUNTIF(B3:B52, "Orange Tulip")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <f>COUNTIF(B3:B52, "Orchid")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127">
+        <f>COUNTIF(B3:B52, "Parsnip")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128">
+        <f>COUNTIF(B3:B52, "Peanut")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129">
+        <f>COUNTIF(B3:B52, "Peas")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130">
+        <f>COUNTIF(B3:B52, "Petinia")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131">
+        <f>COUNTIF(B3:B52, "Pineapple")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <f>COUNTIF(B3:B52, "Pink Tulip")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <f>COUNTIF(B3:B52, "Plombean")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <f>COUNTIF(B3:B52, "Poppy")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135">
+        <f>COUNTIF(B3:B52, "Potato")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136">
+        <f>COUNTIF(B3:B52, "Pumpkin")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <f>COUNTIF(B3:B52, "Quartzanthemum")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <f>COUNTIF(B3:B52, "Quinoa")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139">
+        <f>COUNTIF(B3:B52, "Radish")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140">
+        <f>COUNTIF(B3:B52, "Raspberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <f>COUNTIF(B3:B52, "Red Mushroom")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142">
+        <f>COUNTIF(B3:B52, "Red Tulip")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <f>COUNTIF(B3:B52, "Redstodendron")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144">
+        <f>COUNTIF(B3:B52, "Rhubarb")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145">
+        <f>COUNTIF(B3:B52, "Rice")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146">
+        <f>COUNTIF(B3:B52, "Rutabaga")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147">
+        <f>COUNTIF(B3:B52, "Rye")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148">
+        <f>COUNTIF(B3:B52, "Scallion")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149">
+        <f>COUNTIF(B3:B52, "Seaweed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150">
+        <f>COUNTIF(B3:B52, "Sesame Seeds")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151">
+        <f>COUNTIF(B3:B52, "Sisal")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152">
+        <f>COUNTIF(B3:B52, "Soybean")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153">
+        <f>COUNTIF(B3:B52, "Spice Leaf")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C154">
+        <f>COUNTIF(B3:B52, "Spinach")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155">
+        <f>COUNTIF(B3:B52, "Strawberry")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156">
+        <f>COUNTIF(B3:B52, "Sugar Cane")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157">
+        <f>COUNTIF(B3:B52, "Sweet Potato")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158">
+        <f>COUNTIF(B3:B52, "Taro")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159">
+        <f>COUNTIF(B3:B52, "Tea")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>116</v>
+      </c>
+      <c r="C160">
+        <f>COUNTIF(B3:B52, "Tomatillo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161">
+        <f>COUNTIF(B3:B52, "Tomato")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162">
+        <f>COUNTIF(B3:B52, "Turnip")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163">
+        <f>COUNTIF(B3:B52, "Water Chestnut")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164">
+        <f>COUNTIF(B3:B52, "Wheat")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>119</v>
+      </c>
+      <c r="C165">
+        <f>COUNTIF(B3:B52, "White Mushroom")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166">
+        <f>COUNTIF(B3:B52, "White Tulip")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167">
+        <f>COUNTIF(B3:B52, "Winter Squash")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168">
+        <f>COUNTIF(B3:B52, "Zucchini")</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Mutations.xlsx
+++ b/assets/Mutations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95595F-4237-4FF4-915B-1918A4538A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8940A-542F-4BF0-A850-27B638511A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="15600" activeTab="3" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
   </bookViews>
@@ -5077,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95096370-8A33-44C4-86A3-21EEF1D3B91C}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>

--- a/assets/Mutations.xlsx
+++ b/assets/Mutations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8940A-542F-4BF0-A850-27B638511A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C62E55B-9996-4D37-83A4-449FAA089DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="15600" activeTab="3" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="127">
   <si>
     <t>Brn Mushroom</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -5077,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95096370-8A33-44C4-86A3-21EEF1D3B91C}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,23 +5177,26 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
@@ -5198,14 +5204,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
@@ -5213,16 +5219,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
@@ -5230,14 +5236,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
@@ -5245,29 +5251,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
       <c r="B33" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>32</v>
       </c>
@@ -5275,16 +5284,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>32</v>
       </c>
@@ -5292,14 +5301,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>32</v>
       </c>
@@ -5307,14 +5316,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>22</v>
       </c>
@@ -5322,14 +5331,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>27</v>
       </c>

--- a/assets/Mutations.xlsx
+++ b/assets/Mutations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\David B\Documents\GitHub\brunel-3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8AC7B9-315C-413A-AB5D-0E460230BB9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D5D99-85D6-4C56-AD38-B5289E9E0B93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="0" windowWidth="17280" windowHeight="15600" activeTab="5" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="15600" activeTab="5" xr2:uid="{17F7D696-06AE-44F4-B38F-1A100497E30D}"/>
   </bookViews>
   <sheets>
     <sheet name="1st.v1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,19 +543,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8432,7 +8426,7 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="C51" sqref="C51:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,7 +8446,7 @@
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8460,14 +8454,14 @@
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8475,14 +8469,14 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8490,14 +8484,14 @@
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8505,14 +8499,14 @@
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8520,14 +8514,14 @@
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8535,14 +8529,14 @@
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8550,14 +8544,14 @@
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8565,14 +8559,14 @@
       <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8580,14 +8574,14 @@
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8595,14 +8589,14 @@
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8610,14 +8604,14 @@
       <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8625,14 +8619,14 @@
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8640,14 +8634,14 @@
       <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8655,14 +8649,14 @@
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8670,14 +8664,14 @@
       <c r="B46" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8685,14 +8679,14 @@
       <c r="B49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8700,7 +8694,7 @@
       <c r="B52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
@@ -8709,7 +8703,7 @@
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8717,7 +8711,7 @@
       <c r="B55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
